--- a/corpus_words/corpus_new1.xlsx
+++ b/corpus_words/corpus_new1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soochowmss-my.sharepoint.com/personal/05151330_mss_scu_edu_tw/Documents/python_coding/課程/ccClub/期末專案/財經新聞爬蟲/NLP/corpus_words/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TibeMe_user\Desktop\NLP\corpus_words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="8_{21FABF24-14D1-4791-B736-8B6FA1A845E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD39CAA3-9CF7-4ADA-B73F-5A679D9769D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2009C408-17D5-43B2-ABFC-03E4D7694C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5A22A67-1CC2-4BEE-9BA1-6075A6169D83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5A22A67-1CC2-4BEE-9BA1-6075A6169D83}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1923">
   <si>
     <t>comment</t>
   </si>
@@ -5913,6 +5913,216 @@
   <si>
     <t>菜色多樣化</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮭魚很好吃</t>
+  </si>
+  <si>
+    <t>鮭魚很棒</t>
+  </si>
+  <si>
+    <t>鮭魚一般</t>
+  </si>
+  <si>
+    <t>鮭魚難吃</t>
+  </si>
+  <si>
+    <t>鮭魚很難吃</t>
+  </si>
+  <si>
+    <t>鮭魚超級難吃</t>
+  </si>
+  <si>
+    <t>雞腿肉很好吃</t>
+  </si>
+  <si>
+    <t>雞腿肉很棒</t>
+  </si>
+  <si>
+    <t>雞腿肉一般</t>
+  </si>
+  <si>
+    <t>雞腿肉難吃</t>
+  </si>
+  <si>
+    <t>雞腿肉很難吃</t>
+  </si>
+  <si>
+    <t>雞腿肉超級難吃</t>
+  </si>
+  <si>
+    <t>排骨一般</t>
+  </si>
+  <si>
+    <t>排骨難吃</t>
+  </si>
+  <si>
+    <t>排骨很難吃</t>
+  </si>
+  <si>
+    <t>排骨超級難吃</t>
+  </si>
+  <si>
+    <t>香腸很好吃</t>
+  </si>
+  <si>
+    <t>香腸很棒</t>
+  </si>
+  <si>
+    <t>香腸一般</t>
+  </si>
+  <si>
+    <t>香腸難吃</t>
+  </si>
+  <si>
+    <t>香腸很難吃</t>
+  </si>
+  <si>
+    <t>香腸超級難吃</t>
+  </si>
+  <si>
+    <t>綠花椰菜很好吃</t>
+  </si>
+  <si>
+    <t>綠花椰菜很棒</t>
+  </si>
+  <si>
+    <t>綠花椰菜一般</t>
+  </si>
+  <si>
+    <t>綠花椰菜難吃</t>
+  </si>
+  <si>
+    <t>綠花椰菜很難吃</t>
+  </si>
+  <si>
+    <t>綠花椰菜超級難吃</t>
+  </si>
+  <si>
+    <t>滷蛋很好吃</t>
+  </si>
+  <si>
+    <t>滷蛋很棒</t>
+  </si>
+  <si>
+    <t>滷蛋一般</t>
+  </si>
+  <si>
+    <t>滷蛋難吃</t>
+  </si>
+  <si>
+    <t>滷蛋很難吃</t>
+  </si>
+  <si>
+    <t>滷蛋超級難吃</t>
+  </si>
+  <si>
+    <t>荷包蛋很好吃</t>
+  </si>
+  <si>
+    <t>荷包蛋很棒</t>
+  </si>
+  <si>
+    <t>荷包蛋一般</t>
+  </si>
+  <si>
+    <t>荷包蛋難吃</t>
+  </si>
+  <si>
+    <t>荷包蛋很難吃</t>
+  </si>
+  <si>
+    <t>荷包蛋超級難吃</t>
+  </si>
+  <si>
+    <t>豆芽菜很好吃</t>
+  </si>
+  <si>
+    <t>豆芽菜很棒</t>
+  </si>
+  <si>
+    <t>豆芽菜一般</t>
+  </si>
+  <si>
+    <t>豆芽菜難吃</t>
+  </si>
+  <si>
+    <t>豆芽菜很難吃</t>
+  </si>
+  <si>
+    <t>豆芽菜超級難吃</t>
+  </si>
+  <si>
+    <t>番茄很好吃</t>
+  </si>
+  <si>
+    <t>番茄很棒</t>
+  </si>
+  <si>
+    <t>番茄一般</t>
+  </si>
+  <si>
+    <t>番茄難吃</t>
+  </si>
+  <si>
+    <t>番茄很難吃</t>
+  </si>
+  <si>
+    <t>番茄超級難吃</t>
+  </si>
+  <si>
+    <t>青椒很好吃</t>
+  </si>
+  <si>
+    <t>青椒很棒</t>
+  </si>
+  <si>
+    <t>青椒一般</t>
+  </si>
+  <si>
+    <t>青椒難吃</t>
+  </si>
+  <si>
+    <t>青椒很難吃</t>
+  </si>
+  <si>
+    <t>青椒超級難吃</t>
+  </si>
+  <si>
+    <t>茄子很好吃</t>
+  </si>
+  <si>
+    <t>茄子很棒</t>
+  </si>
+  <si>
+    <t>茄子一般</t>
+  </si>
+  <si>
+    <t>茄子難吃</t>
+  </si>
+  <si>
+    <t>茄子很難吃</t>
+  </si>
+  <si>
+    <t>茄子超級難吃</t>
+  </si>
+  <si>
+    <t>四季豆很好吃</t>
+  </si>
+  <si>
+    <t>四季豆很棒</t>
+  </si>
+  <si>
+    <t>四季豆一般</t>
+  </si>
+  <si>
+    <t>四季豆難吃</t>
+  </si>
+  <si>
+    <t>四季豆很難吃</t>
+  </si>
+  <si>
+    <t>四季豆超級難吃</t>
   </si>
 </sst>
 </file>
@@ -5979,7 +6189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5995,6 +6205,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6311,10 +6524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5427935-D6AA-48E1-A492-25F76DF74149}">
-  <dimension ref="A1:E1962"/>
+  <dimension ref="A1:E2034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1959" workbookViewId="0">
-      <selection activeCell="A1735" sqref="A1735:XFD1742"/>
+    <sheetView tabSelected="1" topLeftCell="A2011" workbookViewId="0">
+      <selection activeCell="A1963" sqref="A1963:B2034"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -22060,6 +22273,582 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1963" s="7" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1963" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1964" s="7" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1964" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1965" s="7" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1965" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1966" s="7" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1966" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1967" s="7" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1967" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1968" s="7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1968" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1969" s="7" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1969" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1970" s="7" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1970" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1971" s="7" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1971" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1972" s="7" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1972" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1973" s="7" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1973" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1974" s="7" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1974" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1975" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="B1975" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1976" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1976" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1977" s="7" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1977" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1978" s="7" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1978" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1979" s="7" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1979" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1980" s="7" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1980" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1981" s="7" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1981" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1982" s="7" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1982" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1983" s="7" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1983" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1984" s="7" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1984" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1985" s="7" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1985" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1986" s="7" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1986" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1987" s="7" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1987" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1988" s="7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1988" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1989" s="7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1989" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1990" s="7" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1990" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1991" s="7" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1991" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1992" s="7" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1992" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1993" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1993" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1994" s="7" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1994" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1995" s="7" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1995" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1996" s="7" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1996" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1997" s="7" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1997" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1998" s="7" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1998" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1999" s="7" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1999" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2000" s="7" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B2000" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2001" s="7" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B2001" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2002" s="7" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B2002" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2003" s="7" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B2003" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2004" s="7" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B2004" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2005" s="7" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B2005" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2006" s="7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B2006" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2007" s="7" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B2007" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2008" s="7" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B2008" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2009" s="7" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B2009" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2010" s="7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B2010" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2011" s="7" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B2011" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2012" s="7" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B2012" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2013" s="7" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B2013" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2014" s="7" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B2014" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2015" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B2015" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2016" s="7" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2016" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2017" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B2017" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2018" s="7" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B2018" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2019" s="7" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B2019" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2020" s="7" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B2020" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2021" s="7" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B2021" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2022" s="7" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B2022" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2023" s="7" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B2023" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2024" s="7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B2024" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2025" s="7" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B2025" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2026" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B2026" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2027" s="7" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B2027" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2028" s="7" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B2028" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2029" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B2029" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2030" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B2030" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2031" s="7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B2031" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2032" s="7" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B2032" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2033" s="7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2033" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2034" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B2034" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1962">
     <sortCondition ref="A2:A1962"/>
